--- a/data/aggregation/ofce.xlsx
+++ b/data/aggregation/ofce.xlsx
@@ -16,7 +16,6 @@
     <sheet name="sectors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1399,7 +1398,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3931,7 +3941,7 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16403,6 +16413,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:T201">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>